--- a/database/fm-int.xlsx
+++ b/database/fm-int.xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>시간</t>
   </si>
   <si>
-    <t>순환 IN</t>
-  </si>
-  <si>
-    <t>순환 OUT</t>
-  </si>
-  <si>
-    <t>심정 IN</t>
-  </si>
-  <si>
-    <t>심정 OUT</t>
+    <t>순환수(열교환 후)</t>
+  </si>
+  <si>
+    <t>순환수(열교환 전)</t>
+  </si>
+  <si>
+    <t>지하수 공급(열교환 전)</t>
+  </si>
+  <si>
+    <t>지하수 공급(열교환 후)</t>
   </si>
   <si>
     <t>Ton/day</t>
   </si>
   <si>
-    <t>2015-08-12 03:21</t>
-  </si>
-  <si>
-    <t>2015-08-11 21:50</t>
-  </si>
-  <si>
-    <t>2015-08-10 17:17</t>
+    <t>2015-09-07</t>
+  </si>
+  <si>
+    <t>2015-09-04</t>
+  </si>
+  <si>
+    <t>2015-09-03</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
   </si>
 </sst>
 </file>
@@ -389,14 +392,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -436,16 +439,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>41403</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>41403</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3">
-        <v>657</v>
+        <v>2544</v>
       </c>
       <c r="E3" s="3">
-        <v>657</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,16 +456,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>41403</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
-        <v>41403</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
-        <v>657</v>
+        <v>2544</v>
       </c>
       <c r="E4" s="3">
-        <v>657</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,16 +473,33 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>41403</v>
+        <v>662</v>
       </c>
       <c r="C5" s="3">
-        <v>41403</v>
+        <v>662</v>
       </c>
       <c r="D5" s="3">
-        <v>657</v>
+        <v>10520</v>
       </c>
       <c r="E5" s="3">
-        <v>657</v>
+        <v>10520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>662</v>
+      </c>
+      <c r="C6" s="3">
+        <v>662</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10520</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10520</v>
       </c>
     </row>
   </sheetData>

--- a/database/fm-int.xlsx
+++ b/database/fm-int.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>시간</t>
   </si>
@@ -25,25 +25,16 @@
     <t>순환수(열교환 전)</t>
   </si>
   <si>
-    <t>지하수 공급(열교환 전)</t>
-  </si>
-  <si>
-    <t>지하수 공급(열교환 후)</t>
+    <t>지하수 공급(양수)</t>
+  </si>
+  <si>
+    <t>지하수 환수(주입)</t>
   </si>
   <si>
     <t>Ton/day</t>
   </si>
   <si>
-    <t>2015-09-07</t>
-  </si>
-  <si>
-    <t>2015-09-04</t>
-  </si>
-  <si>
-    <t>2015-09-03</t>
-  </si>
-  <si>
-    <t>2015-09-01</t>
+    <t>2015-09-09</t>
   </si>
 </sst>
 </file>
@@ -392,14 +383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="7" width="16.7109375" customWidth="1"/>
+    <col min="2" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -449,57 +440,6 @@
       </c>
       <c r="E3" s="3">
         <v>2544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2544</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>662</v>
-      </c>
-      <c r="C5" s="3">
-        <v>662</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10520</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>662</v>
-      </c>
-      <c r="C6" s="3">
-        <v>662</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10520</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10520</v>
       </c>
     </row>
   </sheetData>

--- a/database/fm-int.xlsx
+++ b/database/fm-int.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>시간</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Ton/day</t>
   </si>
   <si>
-    <t>2015-09-09</t>
+    <t>2015-09-11</t>
   </si>
 </sst>
 </file>
